--- a/src/main/resources/Test.xlsx
+++ b/src/main/resources/Test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -52,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;лв.&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;лв.&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -107,7 +104,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -388,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,7 +396,7 @@
     <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -412,11 +409,8 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45400</v>
       </c>
@@ -429,12 +423,8 @@
       <c r="D2" s="5">
         <v>3.5</v>
       </c>
-      <c r="E2" s="5">
-        <f>C2*D2</f>
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45402</v>
       </c>
@@ -447,12 +437,8 @@
       <c r="D3" s="5">
         <v>4.2</v>
       </c>
-      <c r="E3" s="5">
-        <f>C3*D3</f>
-        <v>12.600000000000001</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
